--- a/data/selected_individual_networks.xlsx
+++ b/data/selected_individual_networks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Elena/Documents/EBD-PhD/individual_webs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elenaqb/Documents/EBD-PhD/individual_webs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858BEBA3-FF17-2144-9316-008A7318307E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235882B7-49E8-594A-88EB-3200F6AE97B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="500" windowWidth="50080" windowHeight="28300" xr2:uid="{807D6CA5-9752-0F4A-B898-EE9DF220D9DC}"/>
+    <workbookView xWindow="1200" yWindow="500" windowWidth="49740" windowHeight="11480" xr2:uid="{807D6CA5-9752-0F4A-B898-EE9DF220D9DC}"/>
   </bookViews>
   <sheets>
     <sheet name="webs" sheetId="1" r:id="rId1"/>
@@ -24,20 +24,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="399">
   <si>
     <t>type</t>
   </si>
@@ -154,9 +146,6 @@
   </si>
   <si>
     <t>focus</t>
-  </si>
-  <si>
-    <t>plant focused</t>
   </si>
   <si>
     <t>camera traps</t>
@@ -1312,6 +1301,45 @@
       <t>- 2020-2021</t>
     </r>
   </si>
+  <si>
+    <t>21_01</t>
+  </si>
+  <si>
+    <t>21_02</t>
+  </si>
+  <si>
+    <t>Jayanth et al 2024 Biotropica</t>
+  </si>
+  <si>
+    <t>Jayanth, A., Isvaran, K., &amp; Naniwadekar, R. (2024). Drivers of intraspecific variation in seed dispersal can differ across two species of fleshy-fruited savanna plants. Biotropica, 56(3), e13322. https://doi.org/10.1111/btp.13322</t>
+  </si>
+  <si>
+    <t>Jayanth, A., Isvaran, K., &amp; Naniwadekar, R. (2024). Drivers of intraspecific variation in seed dispersal can differ across two species of fleshy-fruited savanna plants. Biotropica, 56(3), e13322. https://doi.org/10.1111/btp.13323</t>
+  </si>
+  <si>
+    <t>time (minutes observed)</t>
+  </si>
+  <si>
+    <t>Each individual plant was observed for  3 hours (2 plants a bit less, 2.4h and 2.8h)</t>
+  </si>
+  <si>
+    <t>Naringi crenulata</t>
+  </si>
+  <si>
+    <t>Rutaceae</t>
+  </si>
+  <si>
+    <t>Mudumalai Tiger Reserve</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>number of visits, although they also report number of fruits consumed</t>
+  </si>
+  <si>
+    <t>coords, crop, height, canopy width (2 measurements), girth (DBH), fruiting neighbourhood</t>
+  </si>
 </sst>
 </file>
 
@@ -2113,9 +2141,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2128925D-BD8B-3641-9FF3-EAC703B2A479}">
   <dimension ref="A1:AK57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z26" sqref="Z26"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z50" sqref="Z50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2153,7 +2181,7 @@
   <sheetData>
     <row r="1" spans="1:29" s="4" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -2165,37 +2193,37 @@
         <v>38</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>25</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>217</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>1</v>
@@ -2207,7 +2235,7 @@
         <v>10</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>4</v>
@@ -2219,13 +2247,13 @@
         <v>5</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>23</v>
@@ -2237,27 +2265,27 @@
         <v>22</v>
       </c>
       <c r="AC1" s="55" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>9</v>
@@ -2275,10 +2303,10 @@
         <v>1</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N2" s="23">
         <v>36.965105600000001</v>
@@ -2299,7 +2327,7 @@
         <v>392</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>36</v>
@@ -2308,13 +2336,13 @@
         <v>34</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AA2" s="24" t="s">
         <v>27</v>
@@ -2323,27 +2351,27 @@
         <v>27</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:29" s="25" customFormat="1" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="25" t="s">
         <v>60</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>61</v>
       </c>
       <c r="E3" s="26" t="s">
         <v>30</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G3" s="25" t="s">
         <v>9</v>
@@ -2355,16 +2383,16 @@
         <v>32</v>
       </c>
       <c r="J3" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K3" s="28">
         <v>1</v>
       </c>
       <c r="L3" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M3" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N3" s="48">
         <v>37.030341700000001</v>
@@ -2385,22 +2413,22 @@
         <v>134</v>
       </c>
       <c r="T3" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U3" s="25" t="s">
         <v>36</v>
       </c>
       <c r="V3" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="W3" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="X3" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="W3" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="X3" s="25" t="s">
-        <v>159</v>
-      </c>
       <c r="Z3" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AA3" s="31" t="s">
         <v>27</v>
@@ -2409,27 +2437,27 @@
         <v>27</v>
       </c>
       <c r="AC3" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:29" s="32" customFormat="1" ht="86" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G4" s="32" t="s">
         <v>24</v>
@@ -2447,10 +2475,10 @@
         <v>2</v>
       </c>
       <c r="L4" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M4" s="32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N4" s="23">
         <v>37.000672000000002</v>
@@ -2480,16 +2508,16 @@
         <v>31</v>
       </c>
       <c r="W4" s="52" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="X4" s="32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y4" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z4" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AA4" s="24" t="s">
         <v>27</v>
@@ -2498,27 +2526,27 @@
         <v>27</v>
       </c>
       <c r="AC4" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:29" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5" s="79" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>24</v>
@@ -2536,10 +2564,10 @@
         <v>2</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N5" s="23">
         <v>36.995215999999999</v>
@@ -2569,16 +2597,16 @@
         <v>31</v>
       </c>
       <c r="W5" s="53" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z5" s="79" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AA5" s="24" t="s">
         <v>27</v>
@@ -2587,27 +2615,27 @@
         <v>27</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:29" s="25" customFormat="1" ht="86" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="54" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G6" s="25" t="s">
         <v>24</v>
@@ -2625,10 +2653,10 @@
         <v>2</v>
       </c>
       <c r="L6" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M6" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N6" s="28">
         <v>37.011701100000003</v>
@@ -2658,16 +2686,16 @@
         <v>31</v>
       </c>
       <c r="W6" s="54" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="X6" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y6" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z6" s="25" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AA6" s="31" t="s">
         <v>27</v>
@@ -2676,27 +2704,27 @@
         <v>27</v>
       </c>
       <c r="AC6" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:29" s="1" customFormat="1" ht="69" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F7" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>9</v>
@@ -2705,7 +2733,7 @@
         <v>20</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J7" s="5">
         <v>2018</v>
@@ -2714,10 +2742,10 @@
         <v>1</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N7" s="23">
         <v>-31.9019111</v>
@@ -2738,25 +2766,25 @@
         <v>37</v>
       </c>
       <c r="T7" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U7" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="V7" s="9" t="s">
         <v>6</v>
       </c>
       <c r="W7" t="s">
+        <v>115</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y7" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="X7" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y7" s="9" t="s">
-        <v>117</v>
-      </c>
       <c r="Z7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AA7" s="20" t="s">
         <v>27</v>
@@ -2765,27 +2793,27 @@
         <v>27</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:29" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F8" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>9</v>
@@ -2794,7 +2822,7 @@
         <v>20</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J8" s="5">
         <v>2018</v>
@@ -2803,10 +2831,10 @@
         <v>1</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N8" s="23">
         <v>-31.850466699999998</v>
@@ -2827,25 +2855,25 @@
         <v>33</v>
       </c>
       <c r="T8" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U8" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="V8" s="9" t="s">
         <v>6</v>
       </c>
       <c r="W8" t="s">
+        <v>115</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y8" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="X8" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y8" s="9" t="s">
-        <v>117</v>
-      </c>
       <c r="Z8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AA8" s="20" t="s">
         <v>27</v>
@@ -2854,27 +2882,27 @@
         <v>27</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:29" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F9" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>9</v>
@@ -2883,7 +2911,7 @@
         <v>20</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J9" s="5">
         <v>2018</v>
@@ -2892,10 +2920,10 @@
         <v>1</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N9" s="23">
         <v>-32.058922199999998</v>
@@ -2916,25 +2944,25 @@
         <v>46</v>
       </c>
       <c r="T9" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U9" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="V9" s="9" t="s">
         <v>6</v>
       </c>
       <c r="W9" t="s">
+        <v>115</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y9" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="X9" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y9" s="9" t="s">
-        <v>117</v>
-      </c>
       <c r="Z9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AA9" s="20" t="s">
         <v>27</v>
@@ -2943,27 +2971,27 @@
         <v>27</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:29" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F10" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>9</v>
@@ -2972,7 +3000,7 @@
         <v>20</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J10" s="5">
         <v>2018</v>
@@ -2981,10 +3009,10 @@
         <v>1</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N10" s="23">
         <v>-32.0269361</v>
@@ -3005,25 +3033,25 @@
         <v>41</v>
       </c>
       <c r="T10" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U10" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="V10" s="9" t="s">
         <v>6</v>
       </c>
       <c r="W10" t="s">
+        <v>115</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y10" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="X10" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y10" s="9" t="s">
-        <v>117</v>
-      </c>
       <c r="Z10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AA10" s="20" t="s">
         <v>27</v>
@@ -3032,27 +3060,27 @@
         <v>27</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:29" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B11" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F11" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>9</v>
@@ -3061,7 +3089,7 @@
         <v>20</v>
       </c>
       <c r="I11" s="79" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J11" s="5">
         <v>2018</v>
@@ -3070,10 +3098,10 @@
         <v>1</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N11" s="23">
         <v>-31.877844400000001</v>
@@ -3094,25 +3122,25 @@
         <v>29</v>
       </c>
       <c r="T11" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U11" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="V11" s="9" t="s">
         <v>6</v>
       </c>
       <c r="W11" t="s">
+        <v>115</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y11" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="X11" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y11" s="9" t="s">
-        <v>117</v>
-      </c>
       <c r="Z11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AA11" s="20" t="s">
         <v>27</v>
@@ -3121,27 +3149,27 @@
         <v>27</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:29" s="25" customFormat="1" ht="69" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B12" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>54</v>
-      </c>
       <c r="F12" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G12" s="27" t="s">
         <v>9</v>
@@ -3150,7 +3178,7 @@
         <v>20</v>
       </c>
       <c r="I12" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J12" s="28">
         <v>2018</v>
@@ -3159,10 +3187,10 @@
         <v>1</v>
       </c>
       <c r="L12" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M12" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N12" s="48">
         <v>-31.960547200000001</v>
@@ -3183,25 +3211,25 @@
         <v>25</v>
       </c>
       <c r="T12" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U12" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="V12" s="27" t="s">
         <v>6</v>
       </c>
       <c r="W12" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="X12" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y12" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="X12" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y12" s="27" t="s">
-        <v>117</v>
-      </c>
       <c r="Z12" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AA12" s="37" t="s">
         <v>27</v>
@@ -3210,27 +3238,27 @@
         <v>27</v>
       </c>
       <c r="AC12" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:29" s="40" customFormat="1" ht="70" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E13" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="F13" s="41" t="s">
         <v>121</v>
-      </c>
-      <c r="F13" s="41" t="s">
-        <v>122</v>
       </c>
       <c r="G13" s="41" t="s">
         <v>9</v>
@@ -3239,19 +3267,19 @@
         <v>26</v>
       </c>
       <c r="I13" s="40" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J13" s="43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K13" s="43">
         <v>3</v>
       </c>
       <c r="L13" s="44" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M13" s="44" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N13" s="51">
         <v>36.575637</v>
@@ -3272,25 +3300,25 @@
         <v>87</v>
       </c>
       <c r="T13" s="41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U13" s="41" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="V13" s="41" t="s">
         <v>6</v>
       </c>
       <c r="W13" s="44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X13" s="40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Y13" s="41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Z13" s="41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AA13" s="46" t="s">
         <v>27</v>
@@ -3299,27 +3327,27 @@
         <v>27</v>
       </c>
       <c r="AC13" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:29" s="47" customFormat="1" ht="121" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="40" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E14" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" s="41" t="s">
         <v>129</v>
-      </c>
-      <c r="F14" s="41" t="s">
-        <v>130</v>
       </c>
       <c r="G14" s="41" t="s">
         <v>9</v>
@@ -3328,19 +3356,19 @@
         <v>26</v>
       </c>
       <c r="I14" s="40" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J14" s="44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K14" s="43">
         <v>2</v>
       </c>
       <c r="L14" s="44" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M14" s="41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N14" s="51">
         <v>37.927273</v>
@@ -3361,23 +3389,23 @@
         <v>211</v>
       </c>
       <c r="T14" s="44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U14" s="41" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="V14" s="41" t="s">
         <v>6</v>
       </c>
       <c r="W14" s="44" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X14" s="41" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="Y14" s="41"/>
       <c r="Z14" s="40" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AA14" s="46" t="s">
         <v>27</v>
@@ -3386,48 +3414,48 @@
         <v>27</v>
       </c>
       <c r="AC14" s="40" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:29" s="1" customFormat="1" ht="86" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="F15" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>9</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J15" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="K15" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="K15" s="9" t="s">
-        <v>150</v>
-      </c>
       <c r="L15" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N15" s="62">
         <v>-25.051388899999999</v>
@@ -3448,75 +3476,75 @@
         <v>31</v>
       </c>
       <c r="T15" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U15" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="V15" s="9" t="s">
         <v>6</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y15" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Z15" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AA15" s="20" t="s">
         <v>27</v>
       </c>
       <c r="AB15" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AC15" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:29" ht="85" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="F16" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>9</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J16" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="K16" s="9" t="s">
-        <v>150</v>
-      </c>
       <c r="L16" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N16" s="62">
         <v>-25.051388899999999</v>
@@ -3537,75 +3565,75 @@
         <v>25</v>
       </c>
       <c r="T16" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U16" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V16" s="9" t="s">
         <v>6</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y16" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Z16" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA16" s="20" t="s">
         <v>27</v>
       </c>
       <c r="AB16" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AC16" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:37" s="39" customFormat="1" ht="86" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="C17" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="C17" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>136</v>
-      </c>
       <c r="F17" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G17" s="27" t="s">
         <v>9</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I17" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J17" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="K17" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="K17" s="27" t="s">
-        <v>150</v>
-      </c>
       <c r="L17" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M17" s="27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N17" s="62">
         <v>-25.051388899999999</v>
@@ -3626,63 +3654,63 @@
         <v>50</v>
       </c>
       <c r="T17" s="27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U17" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="V17" s="27" t="s">
         <v>6</v>
       </c>
       <c r="W17" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X17" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y17" s="27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Z17" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AA17" s="37" t="s">
         <v>27</v>
       </c>
       <c r="AB17" s="31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AC17" s="27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:37" s="47" customFormat="1" ht="53" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="C18" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="C18" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="42" t="s">
+      <c r="F18" s="41" t="s">
         <v>162</v>
-      </c>
-      <c r="F18" s="41" t="s">
-        <v>163</v>
       </c>
       <c r="G18" s="41" t="s">
         <v>24</v>
       </c>
       <c r="H18" s="41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I18" s="40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J18" s="44">
         <v>2013</v>
@@ -3691,10 +3719,10 @@
         <v>1</v>
       </c>
       <c r="L18" s="41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M18" s="41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N18" s="82">
         <v>-24.358937000000001</v>
@@ -3718,72 +3746,72 @@
         <v>35</v>
       </c>
       <c r="U18" s="44" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="V18" s="41" t="s">
         <v>6</v>
       </c>
       <c r="W18" s="47" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X18" s="41" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Y18" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z18" s="41" t="s">
         <v>167</v>
-      </c>
-      <c r="Z18" s="41" t="s">
-        <v>168</v>
       </c>
       <c r="AA18" s="46" t="s">
         <v>27</v>
       </c>
       <c r="AB18" s="49" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AC18" s="41" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:37" ht="69" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="C19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="F19" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>9</v>
       </c>
       <c r="H19" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" s="23" t="s">
         <v>179</v>
-      </c>
-      <c r="J19" s="23" t="s">
-        <v>180</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N19" s="62">
         <v>10.3975082935426</v>
@@ -3804,23 +3832,23 @@
         <v>10</v>
       </c>
       <c r="T19" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="U19" s="9" t="s">
         <v>184</v>
-      </c>
-      <c r="U19" s="9" t="s">
-        <v>185</v>
       </c>
       <c r="V19" s="9" t="s">
         <v>6</v>
       </c>
       <c r="W19" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X19" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Y19" s="9"/>
       <c r="Z19" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA19" s="50" t="s">
         <v>27</v>
@@ -3829,48 +3857,48 @@
         <v>27</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="20" spans="1:37" ht="68" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>9</v>
       </c>
       <c r="H20" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="J20" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N20" s="62">
         <v>10.3975082935426</v>
@@ -3891,23 +3919,23 @@
         <v>48</v>
       </c>
       <c r="T20" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="U20" s="9" t="s">
         <v>184</v>
-      </c>
-      <c r="U20" s="9" t="s">
-        <v>185</v>
       </c>
       <c r="V20" s="9" t="s">
         <v>6</v>
       </c>
       <c r="W20" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X20" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Y20" s="9"/>
       <c r="Z20" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA20" s="50" t="s">
         <v>27</v>
@@ -3916,48 +3944,48 @@
         <v>27</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="21" spans="1:37" ht="68" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G21" s="9" t="s">
         <v>9</v>
       </c>
       <c r="H21" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="J21" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N21" s="62">
         <v>10.3975082935426</v>
@@ -3978,23 +4006,23 @@
         <v>45</v>
       </c>
       <c r="T21" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="U21" s="9" t="s">
         <v>184</v>
-      </c>
-      <c r="U21" s="9" t="s">
-        <v>185</v>
       </c>
       <c r="V21" s="9" t="s">
         <v>6</v>
       </c>
       <c r="W21" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X21" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Y21" s="9"/>
       <c r="Z21" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA21" s="50" t="s">
         <v>27</v>
@@ -4003,48 +4031,48 @@
         <v>27</v>
       </c>
       <c r="AC21" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="22" spans="1:37" s="39" customFormat="1" ht="69" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G22" s="27" t="s">
         <v>9</v>
       </c>
       <c r="H22" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="I22" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="I22" s="25" t="s">
-        <v>179</v>
-      </c>
       <c r="J22" s="48" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K22" s="28">
         <v>1</v>
       </c>
       <c r="L22" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M22" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N22" s="62">
         <v>10.3975082935426</v>
@@ -4065,23 +4093,23 @@
         <v>186</v>
       </c>
       <c r="T22" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="U22" s="27" t="s">
         <v>184</v>
-      </c>
-      <c r="U22" s="27" t="s">
-        <v>185</v>
       </c>
       <c r="V22" s="27" t="s">
         <v>6</v>
       </c>
       <c r="W22" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X22" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Y22" s="27"/>
       <c r="Z22" s="27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA22" s="37" t="s">
         <v>27</v>
@@ -4090,48 +4118,48 @@
         <v>27</v>
       </c>
       <c r="AC22" s="25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="23" spans="1:37" s="47" customFormat="1" ht="56" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="B23" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="C23" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="42" t="s">
+      <c r="F23" s="41" t="s">
         <v>191</v>
-      </c>
-      <c r="F23" s="41" t="s">
-        <v>192</v>
       </c>
       <c r="G23" s="41" t="s">
         <v>9</v>
       </c>
       <c r="H23" s="41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I23" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="J23" s="43" t="s">
         <v>194</v>
-      </c>
-      <c r="J23" s="43" t="s">
-        <v>195</v>
       </c>
       <c r="K23" s="43">
         <v>1</v>
       </c>
       <c r="L23" s="41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M23" s="41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N23" s="51">
         <v>-15.1666667</v>
@@ -4152,23 +4180,23 @@
         <v>77</v>
       </c>
       <c r="T23" s="41" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="U23" s="44" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="V23" s="41" t="s">
         <v>6</v>
       </c>
       <c r="W23" s="41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X23" s="40" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Y23" s="41"/>
       <c r="Z23" s="40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA23" s="46" t="s">
         <v>27</v>
@@ -4177,36 +4205,36 @@
         <v>27</v>
       </c>
       <c r="AC23" s="40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:37" s="47" customFormat="1" ht="121" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="40" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B24" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="90" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="C24" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="42" t="s">
-        <v>199</v>
-      </c>
       <c r="F24" s="41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G24" s="41" t="s">
         <v>24</v>
       </c>
       <c r="H24" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="I24" s="40" t="s">
         <v>200</v>
-      </c>
-      <c r="I24" s="40" t="s">
-        <v>201</v>
       </c>
       <c r="J24" s="51">
         <v>2018</v>
@@ -4215,10 +4243,10 @@
         <v>1</v>
       </c>
       <c r="L24" s="41" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M24" s="41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N24" s="82">
         <v>0.34305560000000002</v>
@@ -4239,25 +4267,25 @@
         <v>100</v>
       </c>
       <c r="T24" s="41" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="U24" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="V24" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="W24" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="X24" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y24" s="41" t="s">
         <v>203</v>
       </c>
-      <c r="V24" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="W24" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="X24" s="41" t="s">
-        <v>206</v>
-      </c>
-      <c r="Y24" s="41" t="s">
+      <c r="Z24" s="41" t="s">
         <v>204</v>
-      </c>
-      <c r="Z24" s="41" t="s">
-        <v>205</v>
       </c>
       <c r="AA24" s="46" t="s">
         <v>27</v>
@@ -4266,27 +4294,27 @@
         <v>27</v>
       </c>
       <c r="AC24" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:37" s="9" customFormat="1" ht="53" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E25" s="40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F25" s="40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G25" s="40" t="s">
         <v>24</v>
@@ -4295,19 +4323,19 @@
         <v>26</v>
       </c>
       <c r="I25" s="40" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J25" s="40" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K25" s="40">
         <v>2</v>
       </c>
       <c r="L25" s="40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M25" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N25" s="43">
         <v>36.969499999999996</v>
@@ -4331,20 +4359,20 @@
         <v>35</v>
       </c>
       <c r="U25" s="40" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="V25" s="40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W25" s="40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X25" s="40" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Y25" s="40"/>
       <c r="Z25" s="90" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AA25" s="46" t="s">
         <v>27</v>
@@ -4353,7 +4381,7 @@
         <v>27</v>
       </c>
       <c r="AC25" s="41" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AD25" s="47"/>
       <c r="AE25" s="47"/>
@@ -4366,43 +4394,43 @@
     </row>
     <row r="26" spans="1:37" s="1" customFormat="1" ht="86" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="C26" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E26" s="60" t="s">
+        <v>228</v>
+      </c>
+      <c r="F26" s="61" t="s">
         <v>229</v>
-      </c>
-      <c r="F26" s="61" t="s">
-        <v>230</v>
       </c>
       <c r="G26" s="61" t="s">
         <v>9</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I26" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J26" s="5" t="s">
         <v>237</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>238</v>
       </c>
       <c r="K26" s="5">
         <v>1</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N26" s="5">
         <v>13.6364989128473</v>
@@ -4423,25 +4451,25 @@
         <v>22</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="V26" s="1" t="s">
         <v>6</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X26" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AA26" s="50" t="s">
         <v>27</v>
@@ -4450,48 +4478,48 @@
         <v>27</v>
       </c>
       <c r="AC26" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="27" spans="1:37" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="60" t="s">
         <v>219</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" s="60" t="s">
-        <v>220</v>
-      </c>
       <c r="F27" s="61" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G27" s="61" t="s">
         <v>9</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I27" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J27" s="5" t="s">
         <v>237</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>238</v>
       </c>
       <c r="K27" s="5">
         <v>1</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N27" s="5">
         <v>13.6364989128473</v>
@@ -4512,25 +4540,25 @@
         <v>43</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="V27" s="1" t="s">
         <v>6</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X27" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AA27" s="50" t="s">
         <v>27</v>
@@ -4539,48 +4567,48 @@
         <v>27</v>
       </c>
       <c r="AC27" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="28" spans="1:37" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E28" s="60" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F28" s="61" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G28" s="61" t="s">
         <v>9</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I28" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J28" s="5" t="s">
         <v>237</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>238</v>
       </c>
       <c r="K28" s="5">
         <v>1</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N28" s="5">
         <v>13.6364989128473</v>
@@ -4601,25 +4629,25 @@
         <v>29</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="V28" s="1" t="s">
         <v>6</v>
       </c>
       <c r="W28" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X28" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AA28" s="50" t="s">
         <v>27</v>
@@ -4628,48 +4656,48 @@
         <v>27</v>
       </c>
       <c r="AC28" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="29" spans="1:37" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E29" s="60" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F29" s="61" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G29" s="61" t="s">
         <v>9</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I29" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J29" s="5" t="s">
         <v>237</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>238</v>
       </c>
       <c r="K29" s="5">
         <v>1</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N29" s="5">
         <v>13.6364989128473</v>
@@ -4690,25 +4718,25 @@
         <v>33</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="V29" s="1" t="s">
         <v>6</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X29" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Z29" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AA29" s="50" t="s">
         <v>27</v>
@@ -4717,48 +4745,48 @@
         <v>27</v>
       </c>
       <c r="AC29" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="30" spans="1:37" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E30" s="60" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F30" s="61" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G30" s="61" t="s">
         <v>9</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I30" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J30" s="5" t="s">
         <v>237</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>238</v>
       </c>
       <c r="K30" s="5">
         <v>1</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N30" s="5">
         <v>13.6364989128473</v>
@@ -4779,25 +4807,25 @@
         <v>22</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="V30" s="1" t="s">
         <v>6</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X30" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Z30" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AA30" s="50" t="s">
         <v>27</v>
@@ -4806,48 +4834,48 @@
         <v>27</v>
       </c>
       <c r="AC30" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="31" spans="1:37" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E31" s="60" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F31" s="61" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G31" s="61" t="s">
         <v>9</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I31" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J31" s="5" t="s">
         <v>237</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>238</v>
       </c>
       <c r="K31" s="5">
         <v>1</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N31" s="5">
         <v>13.6364989128473</v>
@@ -4868,25 +4896,25 @@
         <v>15</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="V31" s="9" t="s">
         <v>6</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X31" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Z31" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AA31" s="50" t="s">
         <v>27</v>
@@ -4895,48 +4923,48 @@
         <v>27</v>
       </c>
       <c r="AC31" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="32" spans="1:37" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E32" s="60" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F32" s="61" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G32" s="61" t="s">
         <v>9</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I32" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J32" s="5" t="s">
         <v>237</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>238</v>
       </c>
       <c r="K32" s="5">
         <v>1</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N32" s="5">
         <v>13.6364989128473</v>
@@ -4957,25 +4985,25 @@
         <v>2</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="V32" s="1" t="s">
         <v>6</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X32" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Z32" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AA32" s="50" t="s">
         <v>27</v>
@@ -4984,48 +5012,48 @@
         <v>27</v>
       </c>
       <c r="AC32" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="33" spans="1:29" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E33" s="60" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F33" s="61" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G33" s="61" t="s">
         <v>9</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I33" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J33" s="5" t="s">
         <v>237</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>238</v>
       </c>
       <c r="K33" s="5">
         <v>1</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N33" s="5">
         <v>13.6364989128473</v>
@@ -5046,25 +5074,25 @@
         <v>30</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="V33" s="9" t="s">
         <v>6</v>
       </c>
       <c r="W33" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X33" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Z33" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AA33" s="50" t="s">
         <v>27</v>
@@ -5073,48 +5101,48 @@
         <v>27</v>
       </c>
       <c r="AC33" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="34" spans="1:29" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E34" s="60" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F34" s="61" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G34" s="61" t="s">
         <v>9</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I34" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J34" s="5" t="s">
         <v>237</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>238</v>
       </c>
       <c r="K34" s="5">
         <v>1</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N34" s="5">
         <v>13.6364989128473</v>
@@ -5135,25 +5163,25 @@
         <v>38</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V34" s="1" t="s">
         <v>6</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X34" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Z34" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AA34" s="50" t="s">
         <v>27</v>
@@ -5162,48 +5190,48 @@
         <v>27</v>
       </c>
       <c r="AC34" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="35" spans="1:29" s="25" customFormat="1" ht="86" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E35" s="69" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F35" s="68" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G35" s="68" t="s">
         <v>9</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I35" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="J35" s="28" t="s">
         <v>237</v>
-      </c>
-      <c r="J35" s="28" t="s">
-        <v>238</v>
       </c>
       <c r="K35" s="28">
         <v>1</v>
       </c>
       <c r="L35" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M35" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N35" s="28">
         <v>13.6364989128473</v>
@@ -5224,25 +5252,25 @@
         <v>102</v>
       </c>
       <c r="T35" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="U35" s="25" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="V35" s="25" t="s">
         <v>6</v>
       </c>
       <c r="W35" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X35" s="25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Y35" s="25" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Z35" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AA35" s="37" t="s">
         <v>27</v>
@@ -5251,30 +5279,30 @@
         <v>27</v>
       </c>
       <c r="AC35" s="25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="36" spans="1:29" s="9" customFormat="1" ht="103" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B36" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="G36" s="9" t="s">
         <v>252</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>253</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>26</v>
@@ -5283,16 +5311,16 @@
         <v>32</v>
       </c>
       <c r="J36" s="62" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K36">
         <v>2</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N36" s="62">
         <v>37.133125</v>
@@ -5313,23 +5341,23 @@
         <v>156</v>
       </c>
       <c r="T36" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="U36" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="V36" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="W36" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="V36" s="9" t="s">
+      <c r="X36" s="9" t="s">
         <v>355</v>
-      </c>
-      <c r="W36" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="X36" s="9" t="s">
-        <v>356</v>
       </c>
       <c r="Y36"/>
       <c r="Z36" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AA36" s="50" t="s">
         <v>27</v>
@@ -5338,30 +5366,30 @@
         <v>27</v>
       </c>
       <c r="AC36" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="37" spans="1:29" s="27" customFormat="1" ht="103" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="B37" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="B37" s="27" t="s">
+      <c r="C37" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="G37" s="27" t="s">
         <v>252</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D37" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="E37" s="26" t="s">
-        <v>385</v>
-      </c>
-      <c r="F37" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="G37" s="27" t="s">
-        <v>253</v>
       </c>
       <c r="H37" s="27" t="s">
         <v>26</v>
@@ -5370,16 +5398,16 @@
         <v>32</v>
       </c>
       <c r="J37" s="71" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K37" s="29">
         <v>2</v>
       </c>
       <c r="L37" s="27" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M37" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N37" s="71">
         <v>37.038191699999999</v>
@@ -5400,23 +5428,23 @@
         <v>73</v>
       </c>
       <c r="T37" s="27" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="U37" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="V37" s="27" t="s">
+        <v>354</v>
+      </c>
+      <c r="W37" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="V37" s="27" t="s">
+      <c r="X37" s="27" t="s">
         <v>355</v>
-      </c>
-      <c r="W37" s="27" t="s">
-        <v>258</v>
-      </c>
-      <c r="X37" s="27" t="s">
-        <v>356</v>
       </c>
       <c r="Y37" s="29"/>
       <c r="Z37" s="27" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AA37" s="37" t="s">
         <v>27</v>
@@ -5425,36 +5453,36 @@
         <v>27</v>
       </c>
       <c r="AC37" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="38" spans="1:29" s="77" customFormat="1" ht="189" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="65" t="s">
+        <v>258</v>
+      </c>
+      <c r="B38" s="65" t="s">
         <v>259</v>
       </c>
-      <c r="B38" s="65" t="s">
-        <v>260</v>
-      </c>
       <c r="C38" s="65" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D38" s="65" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E38" s="75" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F38" s="65" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G38" s="65" t="s">
         <v>9</v>
       </c>
       <c r="H38" s="65" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I38" s="65" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J38" s="65">
         <v>2015</v>
@@ -5463,10 +5491,10 @@
         <v>1</v>
       </c>
       <c r="L38" s="65" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M38" s="65" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N38" s="83">
         <v>-19.211566900000001</v>
@@ -5487,25 +5515,25 @@
         <v>59</v>
       </c>
       <c r="T38" s="65" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="U38" s="65" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="V38" s="65" t="s">
         <v>6</v>
       </c>
       <c r="W38" s="65" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="X38" s="65" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y38" s="65" t="s">
         <v>358</v>
       </c>
-      <c r="Y38" s="65" t="s">
-        <v>359</v>
-      </c>
       <c r="Z38" s="65" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AA38" s="73" t="s">
         <v>27</v>
@@ -5514,27 +5542,27 @@
         <v>27</v>
       </c>
       <c r="AC38" s="65" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="39" spans="1:29" s="40" customFormat="1" ht="53" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="41" t="s">
+        <v>271</v>
+      </c>
+      <c r="B39" s="90" t="s">
+        <v>361</v>
+      </c>
+      <c r="C39" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="91" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" s="42" t="s">
         <v>272</v>
       </c>
-      <c r="B39" s="90" t="s">
-        <v>362</v>
-      </c>
-      <c r="C39" s="91" t="s">
-        <v>59</v>
-      </c>
-      <c r="D39" s="91" t="s">
-        <v>61</v>
-      </c>
-      <c r="E39" s="42" t="s">
-        <v>273</v>
-      </c>
       <c r="F39" s="90" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G39" s="90" t="s">
         <v>24</v>
@@ -5543,19 +5571,19 @@
         <v>26</v>
       </c>
       <c r="I39" s="90" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J39" s="92" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K39" s="92">
         <v>2</v>
       </c>
       <c r="L39" s="90" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M39" s="93" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N39" s="51">
         <v>36.9198190234601</v>
@@ -5576,23 +5604,23 @@
         <v>72</v>
       </c>
       <c r="T39" s="95" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="U39" s="90" t="s">
+        <v>370</v>
+      </c>
+      <c r="V39" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="W39" s="90" t="s">
+        <v>115</v>
+      </c>
+      <c r="X39" s="90" t="s">
         <v>371</v>
-      </c>
-      <c r="V39" s="90" t="s">
-        <v>40</v>
-      </c>
-      <c r="W39" s="90" t="s">
-        <v>116</v>
-      </c>
-      <c r="X39" s="90" t="s">
-        <v>372</v>
       </c>
       <c r="Y39" s="96"/>
       <c r="Z39" s="90" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AA39" s="81" t="s">
         <v>27</v>
@@ -5601,48 +5629,48 @@
         <v>27</v>
       </c>
       <c r="AC39" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="40" spans="1:29" s="61" customFormat="1" ht="69" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A40" s="61" t="s">
+        <v>274</v>
+      </c>
+      <c r="B40" s="61" t="s">
         <v>275</v>
       </c>
-      <c r="B40" s="61" t="s">
+      <c r="C40" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" s="60" t="s">
         <v>276</v>
       </c>
-      <c r="C40" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="D40" s="61" t="s">
-        <v>61</v>
-      </c>
-      <c r="E40" s="60" t="s">
+      <c r="F40" s="60" t="s">
         <v>277</v>
       </c>
-      <c r="F40" s="60" t="s">
-        <v>278</v>
-      </c>
       <c r="G40" s="61" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H40" s="61" t="s">
         <v>20</v>
       </c>
       <c r="I40" s="61" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J40" s="66" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K40" s="66">
         <v>2</v>
       </c>
       <c r="L40" s="61" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M40" s="61" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N40" s="84">
         <v>-34.016666700000002</v>
@@ -5651,7 +5679,7 @@
         <v>-67.966666666666598</v>
       </c>
       <c r="P40" s="61" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q40" s="67">
         <v>26</v>
@@ -5663,22 +5691,22 @@
         <v>72</v>
       </c>
       <c r="T40" s="61" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="U40" s="61" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="V40" s="61" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="W40" s="61" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X40" s="61" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Z40" s="61" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AA40" s="74" t="s">
         <v>27</v>
@@ -5687,48 +5715,48 @@
         <v>27</v>
       </c>
       <c r="AC40" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="41" spans="1:29" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A41" s="61" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B41" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="C41" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41" s="60" t="s">
         <v>276</v>
       </c>
-      <c r="C41" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="D41" s="61" t="s">
-        <v>61</v>
-      </c>
-      <c r="E41" s="60" t="s">
+      <c r="F41" s="60" t="s">
         <v>277</v>
       </c>
-      <c r="F41" s="60" t="s">
-        <v>278</v>
-      </c>
       <c r="G41" s="61" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H41" s="61" t="s">
         <v>20</v>
       </c>
       <c r="I41" s="61" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J41" s="66" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K41" s="66">
         <v>2</v>
       </c>
       <c r="L41" s="61" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M41" s="86" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N41" s="97">
         <v>-34.133333299999997</v>
@@ -5737,7 +5765,7 @@
         <v>-67.9166666666666</v>
       </c>
       <c r="P41" s="86" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q41" s="10">
         <v>28</v>
@@ -5749,23 +5777,23 @@
         <v>84</v>
       </c>
       <c r="T41" s="61" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="U41" s="61" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="V41" s="61" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="W41" s="61" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X41" s="61" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Y41" s="14"/>
       <c r="Z41" s="61" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AA41" s="74" t="s">
         <v>27</v>
@@ -5774,48 +5802,48 @@
         <v>27</v>
       </c>
       <c r="AC41" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="42" spans="1:29" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A42" s="61" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B42" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="C42" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="60" t="s">
         <v>276</v>
       </c>
-      <c r="C42" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="D42" s="61" t="s">
-        <v>61</v>
-      </c>
-      <c r="E42" s="60" t="s">
+      <c r="F42" s="60" t="s">
         <v>277</v>
       </c>
-      <c r="F42" s="60" t="s">
-        <v>278</v>
-      </c>
       <c r="G42" s="61" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H42" s="61" t="s">
         <v>20</v>
       </c>
       <c r="I42" s="61" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J42" s="66" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K42" s="66">
         <v>2</v>
       </c>
       <c r="L42" s="61" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M42" s="86" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N42" s="97">
         <v>-34.033333300000002</v>
@@ -5824,7 +5852,7 @@
         <v>-67.883333333333297</v>
       </c>
       <c r="P42" s="86" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q42" s="10">
         <v>54</v>
@@ -5836,23 +5864,23 @@
         <v>112</v>
       </c>
       <c r="T42" s="61" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="U42" s="61" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="V42" s="61" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="W42" s="61" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X42" s="61" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Y42" s="14"/>
       <c r="Z42" s="61" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AA42" s="74" t="s">
         <v>27</v>
@@ -5861,48 +5889,48 @@
         <v>27</v>
       </c>
       <c r="AC42" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="1:29" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A43" s="61" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B43" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="C43" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="E43" s="60" t="s">
         <v>276</v>
       </c>
-      <c r="C43" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="D43" s="61" t="s">
-        <v>61</v>
-      </c>
-      <c r="E43" s="60" t="s">
+      <c r="F43" s="60" t="s">
         <v>277</v>
       </c>
-      <c r="F43" s="60" t="s">
-        <v>278</v>
-      </c>
       <c r="G43" s="61" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H43" s="61" t="s">
         <v>20</v>
       </c>
       <c r="I43" s="61" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J43" s="66" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K43" s="66">
         <v>2</v>
       </c>
       <c r="L43" s="61" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M43" s="86" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N43" s="97">
         <v>-34.033333300000002</v>
@@ -5911,7 +5939,7 @@
         <v>-67.966666599999996</v>
       </c>
       <c r="P43" s="86" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q43" s="10">
         <v>35</v>
@@ -5923,23 +5951,23 @@
         <v>61</v>
       </c>
       <c r="T43" s="61" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="U43" s="61" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="V43" s="61" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="W43" s="61" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X43" s="61" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Y43" s="63"/>
       <c r="Z43" s="61" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AA43" s="74" t="s">
         <v>27</v>
@@ -5948,48 +5976,48 @@
         <v>27</v>
       </c>
       <c r="AC43" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="44" spans="1:29" s="25" customFormat="1" ht="69" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="68" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B44" s="68" t="s">
+        <v>275</v>
+      </c>
+      <c r="C44" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="E44" s="69" t="s">
         <v>276</v>
       </c>
-      <c r="C44" s="68" t="s">
-        <v>59</v>
-      </c>
-      <c r="D44" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="E44" s="69" t="s">
+      <c r="F44" s="69" t="s">
         <v>277</v>
       </c>
-      <c r="F44" s="69" t="s">
-        <v>278</v>
-      </c>
       <c r="G44" s="68" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H44" s="68" t="s">
         <v>20</v>
       </c>
       <c r="I44" s="68" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J44" s="70" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K44" s="70">
         <v>2</v>
       </c>
       <c r="L44" s="68" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M44" s="85" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N44" s="100">
         <v>-34.033333300000002</v>
@@ -5998,7 +6026,7 @@
         <v>-67.966666599999996</v>
       </c>
       <c r="P44" s="85" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q44" s="30">
         <v>29</v>
@@ -6010,23 +6038,23 @@
         <v>99</v>
       </c>
       <c r="T44" s="68" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="U44" s="68" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="V44" s="68" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="W44" s="68" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X44" s="68" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Y44" s="64"/>
       <c r="Z44" s="68" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AA44" s="73" t="s">
         <v>27</v>
@@ -6035,36 +6063,36 @@
         <v>27</v>
       </c>
       <c r="AC44" s="27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="45" spans="1:29" s="41" customFormat="1" ht="121" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="41" t="s">
+        <v>297</v>
+      </c>
+      <c r="B45" s="41" t="s">
         <v>298</v>
       </c>
-      <c r="B45" s="41" t="s">
+      <c r="C45" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" s="42" t="s">
         <v>299</v>
       </c>
-      <c r="C45" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="D45" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="E45" s="42" t="s">
-        <v>300</v>
-      </c>
       <c r="F45" s="41" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G45" s="44" t="s">
         <v>9</v>
       </c>
       <c r="H45" s="41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I45" s="41" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J45" s="51">
         <v>2017</v>
@@ -6073,10 +6101,10 @@
         <v>1</v>
       </c>
       <c r="L45" s="44" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M45" s="44" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N45" s="51">
         <v>-31.8012438993293</v>
@@ -6097,22 +6125,22 @@
         <v>93</v>
       </c>
       <c r="T45" s="41" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="U45" s="41" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="V45" s="41" t="s">
         <v>6</v>
       </c>
       <c r="W45" s="41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X45" s="41" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Z45" s="41" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AA45" s="81" t="s">
         <v>27</v>
@@ -6121,27 +6149,27 @@
         <v>27</v>
       </c>
       <c r="AC45" s="41" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="46" spans="1:29" s="86" customFormat="1" ht="35" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A46" s="86" t="s">
+        <v>320</v>
+      </c>
+      <c r="B46" s="86" t="s">
         <v>321</v>
       </c>
-      <c r="B46" s="86" t="s">
+      <c r="C46" s="86" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="86" t="s">
+        <v>60</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C46" s="86" t="s">
-        <v>59</v>
-      </c>
-      <c r="D46" s="86" t="s">
-        <v>61</v>
-      </c>
-      <c r="E46" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>324</v>
       </c>
       <c r="G46" s="86" t="s">
         <v>9</v>
@@ -6153,16 +6181,16 @@
         <v>32</v>
       </c>
       <c r="J46" s="87" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K46" s="87">
         <v>1</v>
       </c>
       <c r="L46" s="86" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M46" s="86" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N46" s="23">
         <v>36.965105600000001</v>
@@ -6183,51 +6211,51 @@
         <v>72</v>
       </c>
       <c r="T46" s="86" t="s">
+        <v>326</v>
+      </c>
+      <c r="U46" s="86" t="s">
         <v>327</v>
       </c>
-      <c r="U46" s="86" t="s">
+      <c r="V46" s="86" t="s">
+        <v>157</v>
+      </c>
+      <c r="W46" s="86" t="s">
+        <v>115</v>
+      </c>
+      <c r="X46" s="86" t="s">
         <v>328</v>
       </c>
-      <c r="V46" s="86" t="s">
-        <v>158</v>
-      </c>
-      <c r="W46" s="86" t="s">
-        <v>116</v>
-      </c>
-      <c r="X46" s="86" t="s">
-        <v>329</v>
-      </c>
       <c r="Z46" s="78" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AA46" s="74" t="s">
         <v>27</v>
       </c>
       <c r="AB46" s="102" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AC46" s="86" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="47" spans="1:29" s="85" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="85" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B47" s="85" t="s">
+        <v>321</v>
+      </c>
+      <c r="C47" s="85" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="85" t="s">
+        <v>60</v>
+      </c>
+      <c r="E47" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="C47" s="85" t="s">
-        <v>59</v>
-      </c>
-      <c r="D47" s="85" t="s">
-        <v>61</v>
-      </c>
-      <c r="E47" s="26" t="s">
+      <c r="F47" s="26" t="s">
         <v>323</v>
-      </c>
-      <c r="F47" s="26" t="s">
-        <v>324</v>
       </c>
       <c r="G47" s="85" t="s">
         <v>9</v>
@@ -6239,16 +6267,16 @@
         <v>32</v>
       </c>
       <c r="J47" s="88" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K47" s="88">
         <v>1</v>
       </c>
       <c r="L47" s="85" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M47" s="85" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N47" s="48">
         <v>37.030341700000001</v>
@@ -6269,72 +6297,72 @@
         <v>41</v>
       </c>
       <c r="T47" s="85" t="s">
+        <v>326</v>
+      </c>
+      <c r="U47" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="U47" s="85" t="s">
-        <v>328</v>
-      </c>
       <c r="V47" s="85" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="W47" s="85" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X47" s="85" t="s">
+        <v>329</v>
+      </c>
+      <c r="Z47" s="85" t="s">
         <v>330</v>
-      </c>
-      <c r="Z47" s="85" t="s">
-        <v>331</v>
       </c>
       <c r="AA47" s="73" t="s">
         <v>27</v>
       </c>
       <c r="AB47" s="101" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AC47" s="85" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="48" spans="1:29" s="40" customFormat="1" ht="104" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="40" t="s">
+        <v>335</v>
+      </c>
+      <c r="B48" s="40" t="s">
         <v>336</v>
       </c>
-      <c r="B48" s="40" t="s">
-        <v>337</v>
-      </c>
       <c r="C48" s="40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D48" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E48" s="42" t="s">
+        <v>338</v>
+      </c>
+      <c r="F48" s="40" t="s">
         <v>339</v>
-      </c>
-      <c r="F48" s="40" t="s">
-        <v>340</v>
       </c>
       <c r="G48" s="40" t="s">
         <v>24</v>
       </c>
       <c r="H48" s="40" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I48" s="40" t="s">
+        <v>340</v>
+      </c>
+      <c r="J48" s="43" t="s">
         <v>341</v>
-      </c>
-      <c r="J48" s="43" t="s">
-        <v>342</v>
       </c>
       <c r="K48" s="43">
         <v>3</v>
       </c>
       <c r="L48" s="40" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M48" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N48" s="43">
         <v>-4.3408725967168102</v>
@@ -6355,25 +6383,25 @@
         <v>127</v>
       </c>
       <c r="T48" s="44" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="U48" s="40" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="V48" s="40" t="s">
         <v>6</v>
       </c>
       <c r="W48" s="40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X48" s="40" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Y48" s="40" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Z48" s="40" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AA48" s="89" t="s">
         <v>27</v>
@@ -6382,27 +6410,27 @@
         <v>27</v>
       </c>
       <c r="AC48" s="40" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="49" spans="1:29" s="40" customFormat="1" ht="53" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="40" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B49" s="40" t="s">
+        <v>374</v>
+      </c>
+      <c r="C49" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="E49" s="42" t="s">
         <v>375</v>
       </c>
-      <c r="C49" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="D49" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="E49" s="42" t="s">
+      <c r="F49" s="40" t="s">
         <v>376</v>
-      </c>
-      <c r="F49" s="40" t="s">
-        <v>377</v>
       </c>
       <c r="G49" s="40" t="s">
         <v>24</v>
@@ -6414,13 +6442,13 @@
         <v>32</v>
       </c>
       <c r="J49" s="43" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K49" s="43">
         <v>1</v>
       </c>
       <c r="M49" s="40" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N49" s="43">
         <v>37.015186100000001</v>
@@ -6441,52 +6469,207 @@
         <v>81</v>
       </c>
       <c r="T49" s="90" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="U49" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V49" s="40" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="W49" s="40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X49" s="40" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="Z49" s="85" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AA49" s="89" t="s">
         <v>27</v>
       </c>
       <c r="AB49" s="49" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AC49" s="85" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="50" spans="1:29" s="1" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
-      <c r="Q50" s="10"/>
-      <c r="AA50" s="21"/>
-      <c r="AB50" s="21"/>
-    </row>
-    <row r="51" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
-      <c r="Q51" s="10"/>
-      <c r="AA51" s="21"/>
-      <c r="AB51" s="21"/>
-    </row>
-    <row r="52" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" s="1" customFormat="1" ht="52" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="78" t="s">
+        <v>386</v>
+      </c>
+      <c r="B50" s="86" t="s">
+        <v>388</v>
+      </c>
+      <c r="C50" s="86" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" s="86" t="s">
+        <v>60</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="F50" s="86" t="s">
+        <v>394</v>
+      </c>
+      <c r="G50" s="86" t="s">
+        <v>9</v>
+      </c>
+      <c r="H50" s="86" t="s">
+        <v>177</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="J50" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="K50" s="5">
+        <v>1</v>
+      </c>
+      <c r="L50" s="86" t="s">
+        <v>396</v>
+      </c>
+      <c r="M50" s="86" t="s">
+        <v>124</v>
+      </c>
+      <c r="N50" s="5">
+        <v>11.55</v>
+      </c>
+      <c r="O50" s="5">
+        <v>76.650000000000006</v>
+      </c>
+      <c r="P50" s="1">
+        <v>22</v>
+      </c>
+      <c r="Q50" s="10">
+        <v>22</v>
+      </c>
+      <c r="R50" s="1">
+        <v>12</v>
+      </c>
+      <c r="S50" s="1">
+        <v>62</v>
+      </c>
+      <c r="T50" s="86" t="s">
+        <v>397</v>
+      </c>
+      <c r="U50" s="86" t="s">
+        <v>398</v>
+      </c>
+      <c r="V50" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="W50" s="86" t="s">
+        <v>115</v>
+      </c>
+      <c r="X50" s="86" t="s">
+        <v>392</v>
+      </c>
+      <c r="Z50" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="AA50" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB50" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC50" s="86" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" s="25" customFormat="1" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="68" t="s">
+        <v>387</v>
+      </c>
+      <c r="B51" s="68" t="s">
+        <v>388</v>
+      </c>
+      <c r="C51" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="E51" s="69" t="s">
+        <v>227</v>
+      </c>
+      <c r="F51" s="69" t="s">
+        <v>235</v>
+      </c>
+      <c r="G51" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="H51" s="68" t="s">
+        <v>177</v>
+      </c>
+      <c r="I51" s="68" t="s">
+        <v>395</v>
+      </c>
+      <c r="J51" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="K51" s="70">
+        <v>1</v>
+      </c>
+      <c r="L51" s="68" t="s">
+        <v>396</v>
+      </c>
+      <c r="M51" s="85" t="s">
+        <v>124</v>
+      </c>
+      <c r="N51" s="100">
+        <v>11.55</v>
+      </c>
+      <c r="O51" s="100">
+        <v>76.650000000000006</v>
+      </c>
+      <c r="P51" s="85">
+        <v>23</v>
+      </c>
+      <c r="Q51" s="30">
+        <v>20</v>
+      </c>
+      <c r="R51" s="85">
+        <v>13</v>
+      </c>
+      <c r="S51" s="85">
+        <v>57</v>
+      </c>
+      <c r="T51" s="68" t="s">
+        <v>397</v>
+      </c>
+      <c r="U51" s="68" t="s">
+        <v>398</v>
+      </c>
+      <c r="V51" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="W51" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="X51" s="68" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y51" s="64"/>
+      <c r="Z51" s="68" t="s">
+        <v>390</v>
+      </c>
+      <c r="AA51" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB51" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC51" s="27" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" s="1" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
       <c r="N52" s="5"/>
@@ -6541,7 +6724,7 @@
       <c r="AB57" s="21"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B27:Z57">
+  <sortState ref="B27:Z57">
     <sortCondition ref="C27:C57"/>
     <sortCondition ref="D27:D57"/>
   </sortState>
@@ -6567,7 +6750,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -6575,7 +6758,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -6591,12 +6774,12 @@
         <v>38</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>13</v>
@@ -6604,26 +6787,26 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -6631,23 +6814,23 @@
         <v>25</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -6660,18 +6843,18 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -6700,10 +6883,10 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -6732,26 +6915,26 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -6759,7 +6942,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -6767,7 +6950,7 @@
         <v>21</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -6775,7 +6958,7 @@
         <v>22</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -6783,7 +6966,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
